--- a/analysis/linear_model_results.xlsx
+++ b/analysis/linear_model_results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="560" windowWidth="30160" windowHeight="13660" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14280" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,14 +19,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
   <si>
     <t>Laurentian</t>
   </si>
   <si>
-    <t>Environmental Factor(s)</t>
-  </si>
-  <si>
     <t>Adjusted R2</t>
   </si>
   <si>
@@ -55,6 +52,24 @@
   </si>
   <si>
     <t>0.036 (0.01**)</t>
+  </si>
+  <si>
+    <t>Tested Parameters</t>
+  </si>
+  <si>
+    <t>DO</t>
+  </si>
+  <si>
+    <t>Best Parameter(s)</t>
+  </si>
+  <si>
+    <t>Chl</t>
+  </si>
+  <si>
+    <t>SO4</t>
+  </si>
+  <si>
+    <t>SRP</t>
   </si>
 </sst>
 </file>
@@ -62,9 +77,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -96,6 +111,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -105,7 +127,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -185,8 +207,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="39">
+  <cellStyleXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -226,32 +259,43 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="39">
+  <cellStyles count="57">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -271,6 +315,15 @@
     <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -290,6 +343,15 @@
     <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -619,203 +681,176 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:O5"/>
+      <selection sqref="A1:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="21.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="7" max="7" width="21.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.1640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:5">
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="11">
+        <v>1.19</v>
+      </c>
+      <c r="E2" s="12">
+        <v>6.2E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="3"/>
+      <c r="B3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="6"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="4"/>
+      <c r="B4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14" t="s">
+      <c r="B5" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0.59889999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3"/>
+      <c r="B6" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="14">
+        <v>-0.56399999999999995</v>
+      </c>
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3"/>
+      <c r="B7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="14">
+        <v>-0.111</v>
+      </c>
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3"/>
+      <c r="B8" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="4"/>
+      <c r="B9" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14" t="s">
+      <c r="B10" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="17"/>
-      <c r="O1" s="14"/>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="13">
-        <v>1.19</v>
-      </c>
-      <c r="D2" s="3">
-        <v>6.2E-2</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="7">
-        <v>0.59889999999999999</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="8">
-        <v>1.19</v>
-      </c>
-      <c r="I3" s="8">
-        <v>6.2E-2</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="K3" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="L3" s="8">
-        <v>0.59899999999999998</v>
-      </c>
-      <c r="M3" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="11">
+      <c r="D10" s="13">
         <v>-7.0000000000000001E-3</v>
       </c>
-      <c r="O3" s="8">
-        <v>6.0999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="5"/>
-      <c r="B4" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="11">
-        <v>-0.56399999999999995</v>
-      </c>
-      <c r="D4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="K4" s="11">
-        <v>-0.56399999999999995</v>
-      </c>
-      <c r="L4" s="8"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="6"/>
-      <c r="B5" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="12">
-        <v>-0.111</v>
-      </c>
-      <c r="D5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="K5" s="12">
-        <v>-0.111</v>
-      </c>
-      <c r="L5" s="9"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="1" t="s">
+      <c r="E10" s="5">
+        <v>6.1240000000000003E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="3"/>
+      <c r="B11" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="4">
-        <v>-7.0000000000000001E-3</v>
-      </c>
-      <c r="D6" s="3">
-        <v>6.1240000000000003E-2</v>
-      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="4"/>
+      <c r="B12" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:O1"/>
-  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
